--- a/번역.xlsx
+++ b/번역.xlsx
@@ -6569,7 +6569,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6867,556 +6869,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="32" width="60.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>68</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>78</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
         <v>85</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>96</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>105</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>118</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U2" t="s">
         <v>130</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s">
         <v>139</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Y2" t="s">
         <v>148</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AA2" t="s">
         <v>151</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AC2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>61</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>69</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>79</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>86</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>97</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>106</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" t="s">
         <v>119</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U3" t="s">
         <v>131</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W3" t="s">
         <v>140</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Y3" t="s">
         <v>149</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" t="s">
         <v>152</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AC3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:30">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>80</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
         <v>87</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" t="s">
         <v>98</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>107</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" t="s">
         <v>120</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" t="s">
         <v>132</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s">
         <v>141</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" t="s">
         <v>150</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:30">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>63</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O5" t="s">
         <v>99</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>108</v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" t="s">
         <v>121</v>
       </c>
-      <c r="V5" t="s">
+      <c r="U5" t="s">
         <v>133</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>142</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AA5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:30">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>72</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" t="s">
         <v>89</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O6" t="s">
         <v>100</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" t="s">
         <v>109</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>122</v>
       </c>
-      <c r="V6" t="s">
+      <c r="U6" t="s">
         <v>134</v>
       </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:30">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>64</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>73</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" t="s">
         <v>90</v>
       </c>
-      <c r="P7" t="s">
+      <c r="O7" t="s">
         <v>101</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Q7" t="s">
         <v>110</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S7" t="s">
         <v>123</v>
       </c>
-      <c r="V7" t="s">
+      <c r="U7" t="s">
         <v>135</v>
       </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:30">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>65</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>74</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
         <v>84</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" t="s">
         <v>91</v>
       </c>
-      <c r="P8" t="s">
+      <c r="O8" t="s">
         <v>102</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q8" t="s">
         <v>111</v>
       </c>
-      <c r="T8" t="s">
+      <c r="S8" t="s">
         <v>124</v>
       </c>
-      <c r="V8" t="s">
+      <c r="U8" t="s">
         <v>136</v>
       </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:30">
+      <c r="A9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>55</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>75</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9" t="s">
         <v>92</v>
       </c>
-      <c r="P9" t="s">
+      <c r="O9" t="s">
         <v>103</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Q9" t="s">
         <v>112</v>
       </c>
-      <c r="T9" t="s">
+      <c r="S9" t="s">
         <v>125</v>
       </c>
-      <c r="V9" t="s">
+      <c r="U9" t="s">
         <v>137</v>
       </c>
-      <c r="X9" t="s">
+      <c r="W9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:30">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>66</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>76</v>
       </c>
-      <c r="N10" t="s">
+      <c r="M10" t="s">
         <v>93</v>
       </c>
-      <c r="P10" t="s">
+      <c r="O10" t="s">
         <v>104</v>
       </c>
-      <c r="R10" t="s">
+      <c r="Q10" t="s">
         <v>113</v>
       </c>
-      <c r="T10" t="s">
+      <c r="S10" t="s">
         <v>126</v>
       </c>
-      <c r="V10" t="s">
+      <c r="U10" t="s">
         <v>138</v>
       </c>
-      <c r="X10" t="s">
+      <c r="W10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:30">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" t="s">
         <v>77</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" t="s">
         <v>94</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Q11" t="s">
         <v>114</v>
       </c>
-      <c r="T11" t="s">
+      <c r="S11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="12" spans="1:30">
+      <c r="E12" t="s">
         <v>58</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>67</v>
       </c>
-      <c r="N12" t="s">
+      <c r="M12" t="s">
         <v>95</v>
       </c>
-      <c r="R12" t="s">
+      <c r="Q12" t="s">
         <v>115</v>
       </c>
-      <c r="T12" t="s">
+      <c r="S12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+    <row r="13" spans="1:30">
+      <c r="E13" t="s">
         <v>59</v>
       </c>
-      <c r="R13" t="s">
+      <c r="Q13" t="s">
         <v>116</v>
       </c>
-      <c r="T13" t="s">
+      <c r="S13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="R14" t="s">
+    <row r="14" spans="1:30">
+      <c r="Q14" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7427,1072 +7393,1018 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI20"/>
+  <dimension ref="A1:BH20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="62" width="60.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:60">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BI1" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:61">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:60">
+      <c r="A2" t="s">
         <v>217</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>226</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>239</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>258</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>265</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>224</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
         <v>280</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>285</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>291</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>295</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U2" t="s">
         <v>303</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s">
         <v>313</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Y2" t="s">
         <v>313</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AA2" t="s">
         <v>315</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AC2" t="s">
         <v>331</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AE2" t="s">
         <v>342</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AG2" t="s">
         <v>359</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AI2" t="s">
         <v>367</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AK2" t="s">
         <v>374</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AM2" t="s">
         <v>155</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AO2" t="s">
         <v>386</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AQ2" t="s">
         <v>394</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AS2" t="s">
         <v>405</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AU2" t="s">
         <v>411</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AW2" t="s">
         <v>422</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AY2" t="s">
         <v>426</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BA2" t="s">
         <v>434</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BC2" t="s">
         <v>439</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BE2" t="s">
         <v>444</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BG2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:61">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:60">
+      <c r="A3" t="s">
         <v>218</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>227</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>240</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>259</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>266</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>276</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>281</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>286</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>292</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" t="s">
         <v>296</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U3" t="s">
         <v>304</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W3" t="s">
         <v>314</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Y3" t="s">
         <v>314</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" t="s">
         <v>317</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AC3" t="s">
         <v>332</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AE3" t="s">
         <v>343</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AG3" t="s">
         <v>360</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AI3" t="s">
         <v>368</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AK3" t="s">
         <v>375</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AM3" t="s">
         <v>379</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AO3" t="s">
         <v>387</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AQ3" t="s">
         <v>395</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AS3" t="s">
         <v>406</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AU3" t="s">
         <v>412</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AW3" t="s">
         <v>423</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AY3" t="s">
         <v>427</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BA3" t="s">
         <v>435</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BC3" t="s">
         <v>440</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BG3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:61">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:60">
+      <c r="A4" t="s">
         <v>219</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>228</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>260</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>267</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>277</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
         <v>282</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" t="s">
         <v>287</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>293</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" t="s">
         <v>297</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" t="s">
         <v>305</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s">
         <v>315</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" t="s">
         <v>315</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" t="s">
         <v>318</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="s">
         <v>333</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" t="s">
         <v>344</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" t="s">
         <v>361</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" t="s">
         <v>369</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AK4" t="s">
         <v>376</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AM4" t="s">
         <v>380</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AO4" t="s">
         <v>388</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AQ4" t="s">
         <v>396</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AS4" t="s">
         <v>407</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AU4" t="s">
         <v>413</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AW4" t="s">
         <v>424</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AY4" t="s">
         <v>388</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BA4" t="s">
         <v>388</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BC4" t="s">
         <v>441</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BG4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:60">
+      <c r="A5" t="s">
         <v>220</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>229</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>242</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>261</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>268</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
         <v>278</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" t="s">
         <v>283</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O5" t="s">
         <v>288</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>294</v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" t="s">
         <v>298</v>
       </c>
-      <c r="V5" t="s">
+      <c r="U5" t="s">
         <v>306</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>316</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Y5" t="s">
         <v>316</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AA5" t="s">
         <v>319</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AC5" t="s">
         <v>334</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AE5" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AG5" t="s">
         <v>362</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AI5" t="s">
         <v>370</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AK5" t="s">
         <v>377</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AM5" t="s">
         <v>381</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AO5" t="s">
         <v>389</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AQ5" t="s">
         <v>397</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AS5" t="s">
         <v>408</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AU5" t="s">
         <v>414</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AW5" t="s">
         <v>425</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="AY5" t="s">
         <v>428</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BA5" t="s">
         <v>436</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BC5" t="s">
         <v>442</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BG5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:60">
+      <c r="A6" t="s">
         <v>221</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>230</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>243</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>262</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>269</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
         <v>279</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" t="s">
         <v>284</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O6" t="s">
         <v>289</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>299</v>
       </c>
-      <c r="V6" t="s">
+      <c r="U6" t="s">
         <v>307</v>
       </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s">
         <v>317</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AA6" t="s">
         <v>320</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AC6" t="s">
         <v>335</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AE6" t="s">
         <v>345</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AG6" t="s">
         <v>363</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AI6" t="s">
         <v>371</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AK6" t="s">
         <v>378</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AM6" t="s">
         <v>382</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AO6" t="s">
         <v>390</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AQ6" t="s">
         <v>398</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AS6" t="s">
         <v>409</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AU6" t="s">
         <v>415</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="AY6" t="s">
         <v>429</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BA6" t="s">
         <v>437</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BC6" t="s">
         <v>443</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BG6" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:60">
+      <c r="A7" t="s">
         <v>222</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>231</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>244</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>263</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>270</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" t="s">
         <v>284</v>
       </c>
-      <c r="P7" t="s">
+      <c r="O7" t="s">
         <v>290</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S7" t="s">
         <v>300</v>
       </c>
-      <c r="V7" t="s">
+      <c r="U7" t="s">
         <v>308</v>
       </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>318</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AA7" t="s">
         <v>321</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AC7" t="s">
         <v>336</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AE7" t="s">
         <v>346</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AG7" t="s">
         <v>364</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AI7" t="s">
         <v>372</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AM7" t="s">
         <v>383</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AO7" t="s">
         <v>391</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AQ7" t="s">
         <v>399</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AS7" t="s">
         <v>410</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AU7" t="s">
         <v>416</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="AY7" t="s">
         <v>430</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BA7" t="s">
         <v>438</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BG7" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:60">
+      <c r="A8" t="s">
         <v>223</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>232</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>245</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>264</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>271</v>
       </c>
-      <c r="T8" t="s">
+      <c r="S8" t="s">
         <v>301</v>
       </c>
-      <c r="V8" t="s">
+      <c r="U8" t="s">
         <v>309</v>
       </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s">
         <v>319</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AA8" t="s">
         <v>322</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AC8" t="s">
         <v>337</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AE8" t="s">
         <v>347</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AG8" t="s">
         <v>365</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AI8" t="s">
         <v>373</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AM8" t="s">
         <v>384</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AO8" t="s">
         <v>392</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AQ8" t="s">
         <v>400</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AU8" t="s">
         <v>417</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="AY8" t="s">
         <v>431</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BG8" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:60">
+      <c r="A9" t="s">
         <v>224</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>233</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>246</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>272</v>
       </c>
-      <c r="T9" t="s">
+      <c r="S9" t="s">
         <v>302</v>
       </c>
-      <c r="V9" t="s">
+      <c r="U9" t="s">
         <v>310</v>
       </c>
-      <c r="X9" t="s">
+      <c r="W9" t="s">
         <v>320</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AA9" t="s">
         <v>323</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AC9" t="s">
         <v>338</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AE9" t="s">
         <v>348</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AG9" t="s">
         <v>366</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AM9" t="s">
         <v>385</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AO9" t="s">
         <v>393</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AQ9" t="s">
         <v>401</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AU9" t="s">
         <v>418</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="AY9" t="s">
         <v>432</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BG9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:60">
+      <c r="A10" t="s">
         <v>225</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>234</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>247</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>273</v>
       </c>
-      <c r="V10" t="s">
+      <c r="U10" t="s">
         <v>311</v>
       </c>
-      <c r="X10" t="s">
+      <c r="W10" t="s">
         <v>321</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AA10" t="s">
         <v>324</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AC10" t="s">
         <v>339</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AE10" t="s">
         <v>349</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AG10" t="s">
         <v>361</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AQ10" t="s">
         <v>402</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AU10" t="s">
         <v>419</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="AY10" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="11" spans="1:60">
+      <c r="C11" t="s">
         <v>235</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>248</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" t="s">
         <v>274</v>
       </c>
-      <c r="V11" t="s">
+      <c r="U11" t="s">
         <v>312</v>
       </c>
-      <c r="X11" t="s">
+      <c r="W11" t="s">
         <v>322</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AA11" t="s">
         <v>325</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AC11" t="s">
         <v>340</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AE11" t="s">
         <v>350</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AQ11" t="s">
         <v>403</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AU11" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="12" spans="1:60">
+      <c r="C12" t="s">
         <v>236</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>249</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I12" t="s">
         <v>275</v>
       </c>
-      <c r="X12" t="s">
+      <c r="W12" t="s">
         <v>323</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AA12" t="s">
         <v>326</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AC12" t="s">
         <v>341</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AE12" t="s">
         <v>351</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AQ12" t="s">
         <v>404</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AU12" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="13" spans="1:60">
+      <c r="C13" t="s">
         <v>237</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>250</v>
       </c>
-      <c r="X13" t="s">
+      <c r="W13" t="s">
         <v>324</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AA13" t="s">
         <v>327</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AE13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="14" spans="1:60">
+      <c r="C14" t="s">
         <v>238</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="W14" t="s">
         <v>325</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AA14" t="s">
         <v>328</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AE14" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
+    <row r="15" spans="1:60">
+      <c r="E15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="W15" t="s">
         <v>326</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AA15" t="s">
         <v>329</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AE15" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
+    <row r="16" spans="1:60">
+      <c r="E16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="W16" t="s">
         <v>327</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AA16" t="s">
         <v>330</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AE16" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
+    <row r="17" spans="5:31">
+      <c r="E17" t="s">
         <v>254</v>
       </c>
-      <c r="X17" t="s">
+      <c r="W17" t="s">
         <v>328</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AE17" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
+    <row r="18" spans="5:31">
+      <c r="E18" t="s">
         <v>255</v>
       </c>
-      <c r="X18" t="s">
+      <c r="W18" t="s">
         <v>329</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AE18" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
+    <row r="19" spans="5:31">
+      <c r="E19" t="s">
         <v>256</v>
       </c>
-      <c r="X19" t="s">
+      <c r="W19" t="s">
         <v>330</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AE19" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
+    <row r="20" spans="5:31">
+      <c r="E20" t="s">
         <v>257</v>
       </c>
     </row>
@@ -8503,1064 +8415,1022 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM16"/>
+  <dimension ref="A1:BL16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="66" width="60.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:64">
+      <c r="A1" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="BM1" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="2" spans="1:65">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:64">
+      <c r="A2" t="s">
         <v>516</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>523</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>533</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>541</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>554</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>561</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
         <v>573</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>587</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>591</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>600</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U2" t="s">
         <v>613</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s">
         <v>622</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Y2" t="s">
         <v>637</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AA2" t="s">
         <v>639</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AC2" t="s">
         <v>646</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AE2" t="s">
         <v>236</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AG2" t="s">
         <v>647</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AI2" t="s">
         <v>648</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AK2" t="s">
         <v>652</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AM2" t="s">
         <v>657</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AO2" t="s">
         <v>69</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AQ2" t="s">
         <v>672</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AS2" t="s">
         <v>687</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AU2" t="s">
         <v>691</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AW2" t="s">
         <v>698</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AY2" t="s">
         <v>712</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BA2" t="s">
         <v>721</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BC2" t="s">
         <v>734</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BE2" t="s">
         <v>738</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BG2" t="s">
         <v>743</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BI2" t="s">
         <v>753</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BK2" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="3" spans="1:65">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:64">
+      <c r="A3" t="s">
         <v>517</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>524</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>534</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>542</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>555</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>562</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>574</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>588</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>592</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" t="s">
         <v>601</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U3" t="s">
         <v>614</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W3" t="s">
         <v>623</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Y3" t="s">
         <v>638</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" t="s">
         <v>640</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AG3" t="s">
         <v>69</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AI3" t="s">
         <v>224</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AK3" t="s">
         <v>653</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AM3" t="s">
         <v>658</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AO3" t="s">
         <v>662</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AQ3" t="s">
         <v>673</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AS3" t="s">
         <v>688</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AU3" t="s">
         <v>692</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AW3" t="s">
         <v>699</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AY3" t="s">
         <v>713</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BA3" t="s">
         <v>722</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BC3" t="s">
         <v>735</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BE3" t="s">
         <v>739</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BG3" t="s">
         <v>361</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BI3" t="s">
         <v>754</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BK3" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="4" spans="1:65">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:64">
+      <c r="A4" t="s">
         <v>518</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>525</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>535</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>543</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>556</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>563</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
         <v>575</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" t="s">
         <v>589</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>593</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" t="s">
         <v>602</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" t="s">
         <v>615</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s">
         <v>624</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" t="s">
         <v>641</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" t="s">
         <v>649</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AK4" t="s">
         <v>654</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AM4" t="s">
         <v>659</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AO4" t="s">
         <v>663</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AQ4" t="s">
         <v>674</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AS4" t="s">
         <v>689</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AU4" t="s">
         <v>693</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AW4" t="s">
         <v>700</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AY4" t="s">
         <v>714</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BA4" t="s">
         <v>723</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BC4" t="s">
         <v>736</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BE4" t="s">
         <v>740</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BG4" t="s">
         <v>744</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BI4" t="s">
         <v>755</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BK4" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="5" spans="1:65">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:64">
+      <c r="A5" t="s">
         <v>519</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>526</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>536</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>544</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>557</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
         <v>564</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" t="s">
         <v>576</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O5" t="s">
         <v>590</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>594</v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" t="s">
         <v>603</v>
       </c>
-      <c r="V5" t="s">
+      <c r="U5" t="s">
         <v>616</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>625</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AA5" t="s">
         <v>217</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AI5" t="s">
         <v>650</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AK5" t="s">
         <v>655</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AM5" t="s">
         <v>660</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AO5" t="s">
         <v>664</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AQ5" t="s">
         <v>675</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AS5" t="s">
         <v>690</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AU5" t="s">
         <v>694</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AW5" t="s">
         <v>701</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="AY5" t="s">
         <v>715</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BA5" t="s">
         <v>724</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BC5" t="s">
         <v>737</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BE5" t="s">
         <v>741</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BG5" t="s">
         <v>745</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BI5" t="s">
         <v>756</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BK5" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="6" spans="1:65">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:64">
+      <c r="A6" t="s">
         <v>520</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>527</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>537</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>545</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>558</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
         <v>565</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" t="s">
         <v>577</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" t="s">
         <v>595</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>604</v>
       </c>
-      <c r="V6" t="s">
+      <c r="U6" t="s">
         <v>617</v>
       </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s">
         <v>626</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AA6" t="s">
         <v>642</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AI6" t="s">
         <v>651</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AK6" t="s">
         <v>656</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AM6" t="s">
         <v>661</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AO6" t="s">
         <v>665</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AQ6" t="s">
         <v>676</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AU6" t="s">
         <v>695</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AW6" t="s">
         <v>702</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="AY6" t="s">
         <v>716</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BA6" t="s">
         <v>725</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BE6" t="s">
         <v>742</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BG6" t="s">
         <v>746</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BI6" t="s">
         <v>757</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BK6" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="7" spans="1:65">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:64">
+      <c r="A7" t="s">
         <v>521</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>528</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>538</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>546</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>559</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>566</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" t="s">
         <v>578</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Q7" t="s">
         <v>596</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S7" t="s">
         <v>605</v>
       </c>
-      <c r="V7" t="s">
+      <c r="U7" t="s">
         <v>618</v>
       </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>627</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AA7" t="s">
         <v>643</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AO7" t="s">
         <v>666</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AQ7" t="s">
         <v>677</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AU7" t="s">
         <v>696</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AW7" t="s">
         <v>703</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="AY7" t="s">
         <v>717</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BA7" t="s">
         <v>726</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BG7" t="s">
         <v>747</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BI7" t="s">
         <v>758</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BK7" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="8" spans="1:65">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:64">
+      <c r="A8" t="s">
         <v>522</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>529</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>539</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>547</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>560</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
         <v>567</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" t="s">
         <v>579</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q8" t="s">
         <v>597</v>
       </c>
-      <c r="T8" t="s">
+      <c r="S8" t="s">
         <v>606</v>
       </c>
-      <c r="V8" t="s">
+      <c r="U8" t="s">
         <v>619</v>
       </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s">
         <v>628</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AA8" t="s">
         <v>644</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AO8" t="s">
         <v>667</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AQ8" t="s">
         <v>678</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AW8" t="s">
         <v>704</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="AY8" t="s">
         <v>718</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BA8" t="s">
         <v>727</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BG8" t="s">
         <v>748</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BI8" t="s">
         <v>759</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BK8" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="9" spans="1:65">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="9" spans="1:64">
+      <c r="C9" t="s">
         <v>530</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>540</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>548</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" t="s">
         <v>568</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9" t="s">
         <v>580</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Q9" t="s">
         <v>598</v>
       </c>
-      <c r="T9" t="s">
+      <c r="S9" t="s">
         <v>607</v>
       </c>
-      <c r="V9" t="s">
+      <c r="U9" t="s">
         <v>620</v>
       </c>
-      <c r="X9" t="s">
+      <c r="W9" t="s">
         <v>629</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AA9" t="s">
         <v>645</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AO9" t="s">
         <v>668</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AQ9" t="s">
         <v>679</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AU9" t="s">
         <v>697</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AW9" t="s">
         <v>705</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="AY9" t="s">
         <v>719</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BA9" t="s">
         <v>728</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BG9" t="s">
         <v>749</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BI9" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="10" spans="1:65">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="10" spans="1:64">
+      <c r="C10" t="s">
         <v>531</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>223</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>549</v>
       </c>
-      <c r="L10" t="s">
+      <c r="K10" t="s">
         <v>569</v>
       </c>
-      <c r="N10" t="s">
+      <c r="M10" t="s">
         <v>581</v>
       </c>
-      <c r="R10" t="s">
+      <c r="Q10" t="s">
         <v>599</v>
       </c>
-      <c r="T10" t="s">
+      <c r="S10" t="s">
         <v>608</v>
       </c>
-      <c r="V10" t="s">
+      <c r="U10" t="s">
         <v>621</v>
       </c>
-      <c r="X10" t="s">
+      <c r="W10" t="s">
         <v>630</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AO10" t="s">
         <v>427</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AQ10" t="s">
         <v>680</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AW10" t="s">
         <v>706</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="AY10" t="s">
         <v>720</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BA10" t="s">
         <v>729</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BG10" t="s">
         <v>750</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BI10" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="11" spans="1:65">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="11" spans="1:64">
+      <c r="C11" t="s">
         <v>532</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>550</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
         <v>570</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" t="s">
         <v>582</v>
       </c>
-      <c r="T11" t="s">
+      <c r="S11" t="s">
         <v>609</v>
       </c>
-      <c r="X11" t="s">
+      <c r="W11" t="s">
         <v>631</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AO11" t="s">
         <v>669</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AQ11" t="s">
         <v>681</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AW11" t="s">
         <v>707</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BA11" t="s">
         <v>730</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BG11" t="s">
         <v>751</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BI11" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="12" spans="1:65">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
+    <row r="12" spans="1:64">
+      <c r="G12" t="s">
         <v>551</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" t="s">
         <v>571</v>
       </c>
-      <c r="N12" t="s">
+      <c r="M12" t="s">
         <v>583</v>
       </c>
-      <c r="T12" t="s">
+      <c r="S12" t="s">
         <v>610</v>
       </c>
-      <c r="X12" t="s">
+      <c r="W12" t="s">
         <v>632</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AO12" t="s">
         <v>670</v>
       </c>
-      <c r="AR12" t="s">
+      <c r="AQ12" t="s">
         <v>682</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AW12" t="s">
         <v>708</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BA12" t="s">
         <v>731</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BG12" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="13" spans="1:65">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
+    <row r="13" spans="1:64">
+      <c r="G13" t="s">
         <v>552</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K13" t="s">
         <v>572</v>
       </c>
-      <c r="N13" t="s">
+      <c r="M13" t="s">
         <v>584</v>
       </c>
-      <c r="T13" t="s">
+      <c r="S13" t="s">
         <v>611</v>
       </c>
-      <c r="X13" t="s">
+      <c r="W13" t="s">
         <v>633</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AO13" t="s">
         <v>671</v>
       </c>
-      <c r="AR13" t="s">
+      <c r="AQ13" t="s">
         <v>683</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AW13" t="s">
         <v>709</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BA13" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="14" spans="1:65">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
+    <row r="14" spans="1:64">
+      <c r="G14" t="s">
         <v>553</v>
       </c>
-      <c r="N14" t="s">
+      <c r="M14" t="s">
         <v>585</v>
       </c>
-      <c r="T14" t="s">
+      <c r="S14" t="s">
         <v>612</v>
       </c>
-      <c r="X14" t="s">
+      <c r="W14" t="s">
         <v>634</v>
       </c>
-      <c r="AR14" t="s">
+      <c r="AQ14" t="s">
         <v>684</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AW14" t="s">
         <v>710</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BA14" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="15" spans="1:65">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="N15" t="s">
+    <row r="15" spans="1:64">
+      <c r="M15" t="s">
         <v>586</v>
       </c>
-      <c r="X15" t="s">
+      <c r="W15" t="s">
         <v>635</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AQ15" t="s">
         <v>685</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AW15" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="16" spans="1:65">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="X16" t="s">
+    <row r="16" spans="1:64">
+      <c r="W16" t="s">
         <v>636</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AQ16" t="s">
         <v>686</v>
       </c>
     </row>
@@ -9571,963 +9441,915 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:AZ18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="54" width="60.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>770</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="BA1" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:52">
+      <c r="A2" t="s">
         <v>822</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>823</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>830</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>832</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>842</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>852</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
         <v>845</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>873</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>888</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>898</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U2" t="s">
         <v>905</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s">
         <v>913</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Y2" t="s">
         <v>924</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AA2" t="s">
         <v>936</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AC2" t="s">
         <v>940</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AE2" t="s">
         <v>956</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AG2" t="s">
         <v>966</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AI2" t="s">
         <v>976</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AK2" t="s">
         <v>987</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AM2" t="s">
         <v>996</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AO2" t="s">
         <v>1008</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AQ2" t="s">
         <v>1013</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AS2" t="s">
         <v>1022</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AU2" t="s">
         <v>1033</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AW2" t="s">
         <v>1036</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AY2" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:52">
+      <c r="C3" t="s">
         <v>427</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>769</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>833</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>843</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>853</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>863</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>874</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>889</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" t="s">
         <v>899</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U3" t="s">
         <v>906</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W3" t="s">
         <v>914</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Y3" t="s">
         <v>925</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" t="s">
         <v>937</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AC3" t="s">
         <v>941</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AE3" t="s">
         <v>957</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AG3" t="s">
         <v>967</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AI3" t="s">
         <v>977</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AK3" t="s">
         <v>988</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AM3" t="s">
         <v>997</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AO3" t="s">
         <v>1009</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AQ3" t="s">
         <v>1014</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AS3" t="s">
         <v>1023</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AU3" t="s">
         <v>1034</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AW3" t="s">
         <v>1037</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AY3" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" spans="1:52">
+      <c r="C4" t="s">
         <v>824</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>831</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>834</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>844</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>854</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
         <v>864</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" t="s">
         <v>875</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>890</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" t="s">
         <v>900</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" t="s">
         <v>907</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s">
         <v>915</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" t="s">
         <v>926</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" t="s">
         <v>938</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="s">
         <v>942</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" t="s">
         <v>958</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" t="s">
         <v>968</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" t="s">
         <v>978</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AK4" t="s">
         <v>989</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AM4" t="s">
         <v>998</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AO4" t="s">
         <v>1010</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AQ4" t="s">
         <v>1015</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AS4" t="s">
         <v>1024</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AU4" t="s">
         <v>1035</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AW4" t="s">
         <v>1038</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AY4" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" spans="1:52">
+      <c r="C5" t="s">
         <v>825</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>835</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>845</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
         <v>855</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" t="s">
         <v>865</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O5" t="s">
         <v>876</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>891</v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" t="s">
         <v>901</v>
       </c>
-      <c r="V5" t="s">
+      <c r="U5" t="s">
         <v>908</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>916</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Y5" t="s">
         <v>927</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AA5" t="s">
         <v>939</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AC5" t="s">
         <v>943</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AE5" t="s">
         <v>959</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AG5" t="s">
         <v>969</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AI5" t="s">
         <v>979</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AK5" t="s">
         <v>990</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AM5" t="s">
         <v>999</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AO5" t="s">
         <v>1011</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AQ5" t="s">
         <v>1016</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AS5" t="s">
         <v>1025</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AW5" t="s">
         <v>1039</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="AY5" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="6" spans="1:52">
+      <c r="C6" t="s">
         <v>826</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>836</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>835</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
         <v>856</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" t="s">
         <v>866</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O6" t="s">
         <v>877</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" t="s">
         <v>892</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>902</v>
       </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s">
         <v>917</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Y6" t="s">
         <v>928</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AC6" t="s">
         <v>944</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AE6" t="s">
         <v>960</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AG6" t="s">
         <v>970</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AI6" t="s">
         <v>980</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AK6" t="s">
         <v>991</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AM6" t="s">
         <v>1000</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AO6" t="s">
         <v>1012</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AQ6" t="s">
         <v>1017</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AS6" t="s">
         <v>1026</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AW6" t="s">
         <v>1040</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="AY6" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="7" spans="1:52">
+      <c r="C7" t="s">
         <v>827</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>837</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>846</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>857</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" t="s">
         <v>867</v>
       </c>
-      <c r="P7" t="s">
+      <c r="O7" t="s">
         <v>878</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Q7" t="s">
         <v>893</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S7" t="s">
         <v>903</v>
       </c>
-      <c r="V7" t="s">
+      <c r="U7" t="s">
         <v>909</v>
       </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>918</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Y7" t="s">
         <v>929</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AC7" t="s">
         <v>945</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AE7" t="s">
         <v>961</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AG7" t="s">
         <v>971</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AI7" t="s">
         <v>981</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AK7" t="s">
         <v>992</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AM7" t="s">
         <v>1001</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AQ7" t="s">
         <v>1018</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AS7" t="s">
         <v>1027</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AW7" t="s">
         <v>1041</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="AY7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="8" spans="1:52">
+      <c r="C8" t="s">
         <v>828</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>838</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>847</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
         <v>858</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" t="s">
         <v>868</v>
       </c>
-      <c r="P8" t="s">
+      <c r="O8" t="s">
         <v>879</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q8" t="s">
         <v>894</v>
       </c>
-      <c r="T8" t="s">
+      <c r="S8" t="s">
         <v>904</v>
       </c>
-      <c r="V8" t="s">
+      <c r="U8" t="s">
         <v>910</v>
       </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s">
         <v>919</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Y8" t="s">
         <v>930</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AC8" t="s">
         <v>434</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AE8" t="s">
         <v>962</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AG8" t="s">
         <v>972</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AI8" t="s">
         <v>982</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AK8" t="s">
         <v>993</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AM8" t="s">
         <v>1002</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AQ8" t="s">
         <v>1019</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AS8" t="s">
         <v>1028</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AW8" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="9" spans="1:52">
+      <c r="C9" t="s">
         <v>829</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>839</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>848</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" t="s">
         <v>859</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9" t="s">
         <v>869</v>
       </c>
-      <c r="P9" t="s">
+      <c r="O9" t="s">
         <v>880</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Q9" t="s">
         <v>895</v>
       </c>
-      <c r="V9" t="s">
+      <c r="U9" t="s">
         <v>911</v>
       </c>
-      <c r="X9" t="s">
+      <c r="W9" t="s">
         <v>920</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>931</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AC9" t="s">
         <v>946</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AE9" t="s">
         <v>963</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AG9" t="s">
         <v>973</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AI9" t="s">
         <v>983</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AK9" t="s">
         <v>994</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AM9" t="s">
         <v>1003</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AQ9" t="s">
         <v>434</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AS9" t="s">
         <v>1029</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AW9" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
+    <row r="10" spans="1:52">
+      <c r="G10" t="s">
         <v>840</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>849</v>
       </c>
-      <c r="L10" t="s">
+      <c r="K10" t="s">
         <v>860</v>
       </c>
-      <c r="N10" t="s">
+      <c r="M10" t="s">
         <v>870</v>
       </c>
-      <c r="P10" t="s">
+      <c r="O10" t="s">
         <v>881</v>
       </c>
-      <c r="R10" t="s">
+      <c r="Q10" t="s">
         <v>896</v>
       </c>
-      <c r="V10" t="s">
+      <c r="U10" t="s">
         <v>912</v>
       </c>
-      <c r="X10" t="s">
+      <c r="W10" t="s">
         <v>921</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>932</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AC10" t="s">
         <v>947</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AE10" t="s">
         <v>964</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AG10" t="s">
         <v>974</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AI10" t="s">
         <v>984</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AK10" t="s">
         <v>995</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AM10" t="s">
         <v>1004</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AQ10" t="s">
         <v>1020</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AS10" t="s">
         <v>1030</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AW10" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="11" spans="1:52">
+      <c r="G11" t="s">
         <v>841</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" t="s">
         <v>850</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
         <v>861</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" t="s">
         <v>871</v>
       </c>
-      <c r="P11" t="s">
+      <c r="O11" t="s">
         <v>882</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Q11" t="s">
         <v>897</v>
       </c>
-      <c r="X11" t="s">
+      <c r="W11" t="s">
         <v>922</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>933</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AC11" t="s">
         <v>948</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AE11" t="s">
         <v>965</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AG11" t="s">
         <v>975</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AI11" t="s">
         <v>985</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AM11" t="s">
         <v>1005</v>
       </c>
-      <c r="AR11" t="s">
+      <c r="AQ11" t="s">
         <v>1021</v>
       </c>
-      <c r="AT11" t="s">
+      <c r="AS11" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
+    <row r="12" spans="1:52">
+      <c r="I12" t="s">
         <v>851</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" t="s">
         <v>862</v>
       </c>
-      <c r="N12" t="s">
+      <c r="M12" t="s">
         <v>872</v>
       </c>
-      <c r="P12" t="s">
+      <c r="O12" t="s">
         <v>883</v>
       </c>
-      <c r="X12" t="s">
+      <c r="W12" t="s">
         <v>923</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>934</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AC12" t="s">
         <v>949</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AE12" t="s">
         <v>853</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AI12" t="s">
         <v>986</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AM12" t="s">
         <v>1006</v>
       </c>
-      <c r="AT12" t="s">
+      <c r="AS12" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="P13" t="s">
+    <row r="13" spans="1:52">
+      <c r="O13" t="s">
         <v>884</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>935</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AC13" t="s">
         <v>950</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AM13" t="s">
         <v>1007</v>
       </c>
-      <c r="AT13" t="s">
+      <c r="AS13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="P14" t="s">
+    <row r="14" spans="1:52">
+      <c r="O14" t="s">
         <v>885</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AC14" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="P15" t="s">
+    <row r="15" spans="1:52">
+      <c r="O15" t="s">
         <v>886</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AC15" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="P16" t="s">
+    <row r="16" spans="1:52">
+      <c r="O16" t="s">
         <v>887</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AC16" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="AD17" t="s">
+    <row r="17" spans="29:29">
+      <c r="AC17" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="AD18" t="s">
+    <row r="18" spans="29:29">
+      <c r="AC18" t="s">
         <v>955</v>
       </c>
     </row>
@@ -10538,1022 +10360,980 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI16"/>
+  <dimension ref="A1:BH16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="62" width="60.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:60">
+      <c r="A1" s="1" t="s">
+        <v>1050</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="BI1" s="1" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="2" spans="1:61">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:60">
+      <c r="A2" t="s">
         <v>1110</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>1118</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>1124</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>1134</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>1141</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>1151</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
         <v>1154</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>1157</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>1164</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>1170</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U2" t="s">
         <v>1179</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s">
         <v>1188</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Y2" t="s">
         <v>1195</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AA2" t="s">
         <v>1206</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AC2" t="s">
         <v>1218</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AE2" t="s">
         <v>1224</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AG2" t="s">
         <v>1237</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AI2" t="s">
         <v>1247</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AK2" t="s">
         <v>1262</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AM2" t="s">
         <v>1271</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AO2" t="s">
         <v>1274</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AQ2" t="s">
         <v>1286</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AS2" t="s">
         <v>1295</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AU2" t="s">
         <v>1304</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AW2" t="s">
         <v>1310</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AY2" t="s">
         <v>1316</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BA2" t="s">
         <v>1326</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BC2" t="s">
         <v>1339</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BE2" t="s">
         <v>1344</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BG2" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="3" spans="1:61">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:60">
+      <c r="A3" t="s">
         <v>280</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>1119</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>1125</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>1135</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>1142</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>1152</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>1155</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>1158</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>1165</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" t="s">
         <v>1171</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U3" t="s">
         <v>1180</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W3" t="s">
         <v>1189</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Y3" t="s">
         <v>1196</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" t="s">
         <v>1207</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AC3" t="s">
         <v>1219</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AE3" t="s">
         <v>1225</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AG3" t="s">
         <v>1238</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AI3" t="s">
         <v>1248</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AK3" t="s">
         <v>1263</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AM3" t="s">
         <v>1272</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AO3" t="s">
         <v>1275</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AQ3" t="s">
         <v>1287</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AS3" t="s">
         <v>1296</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AU3" t="s">
         <v>1305</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AW3" t="s">
         <v>1311</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AY3" t="s">
         <v>1317</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BA3" t="s">
         <v>1327</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BC3" t="s">
         <v>1340</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BE3" t="s">
         <v>1345</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BG3" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="4" spans="1:61">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:60">
+      <c r="A4" t="s">
         <v>1111</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>1120</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>1126</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>1136</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>1143</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>1153</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
         <v>1156</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" t="s">
         <v>1159</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>1166</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" t="s">
         <v>1172</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" t="s">
         <v>1181</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s">
         <v>1190</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" t="s">
         <v>1197</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" t="s">
         <v>1208</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="s">
         <v>1220</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" t="s">
         <v>1226</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" t="s">
         <v>1239</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" t="s">
         <v>1249</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AK4" t="s">
         <v>1264</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AM4" t="s">
         <v>1273</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AO4" t="s">
         <v>1276</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AQ4" t="s">
         <v>1288</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AS4" t="s">
         <v>1297</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AU4" t="s">
         <v>1306</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AW4" t="s">
         <v>1312</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AY4" t="s">
         <v>1318</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BA4" t="s">
         <v>1328</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BC4" t="s">
         <v>1341</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BE4" t="s">
         <v>1346</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BG4" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:60">
+      <c r="A5" t="s">
         <v>1112</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>1121</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>1127</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>1137</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>1144</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O5" t="s">
         <v>1160</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>1167</v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" t="s">
         <v>1173</v>
       </c>
-      <c r="V5" t="s">
+      <c r="U5" t="s">
         <v>1182</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>1191</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Y5" t="s">
         <v>1198</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AA5" t="s">
         <v>1209</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AC5" t="s">
         <v>1221</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AE5" t="s">
         <v>1227</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AG5" t="s">
         <v>1240</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AI5" t="s">
         <v>1250</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AK5" t="s">
         <v>1265</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AM5" t="s">
         <v>371</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AO5" t="s">
         <v>1277</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AQ5" t="s">
         <v>1289</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AS5" t="s">
         <v>1298</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AU5" t="s">
         <v>1307</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AW5" t="s">
         <v>1313</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="AY5" t="s">
         <v>1319</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BA5" t="s">
         <v>1329</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BC5" t="s">
         <v>1342</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BG5" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:60">
+      <c r="A6" t="s">
         <v>1113</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>1122</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>1128</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>1138</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>1145</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O6" t="s">
         <v>1161</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" t="s">
         <v>1168</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>361</v>
       </c>
-      <c r="V6" t="s">
+      <c r="U6" t="s">
         <v>1183</v>
       </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s">
         <v>1192</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Y6" t="s">
         <v>1199</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AA6" t="s">
         <v>1210</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AC6" t="s">
         <v>1222</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AE6" t="s">
         <v>1228</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AG6" t="s">
         <v>1241</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AI6" t="s">
         <v>1251</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AK6" t="s">
         <v>1266</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AO6" t="s">
         <v>1278</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AQ6" t="s">
         <v>1290</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AS6" t="s">
         <v>1299</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AU6" t="s">
         <v>1308</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AW6" t="s">
         <v>1314</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="AY6" t="s">
         <v>1320</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BA6" t="s">
         <v>1330</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BC6" t="s">
         <v>1343</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BG6" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:60">
+      <c r="A7" t="s">
         <v>1114</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>1123</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>1129</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>1139</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>1146</v>
       </c>
-      <c r="P7" t="s">
+      <c r="O7" t="s">
         <v>1162</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Q7" t="s">
         <v>1169</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S7" t="s">
         <v>1174</v>
       </c>
-      <c r="V7" t="s">
+      <c r="U7" t="s">
         <v>1184</v>
       </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>1193</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Y7" t="s">
         <v>1200</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AA7" t="s">
         <v>1211</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AC7" t="s">
         <v>1223</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AE7" t="s">
         <v>1229</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AG7" t="s">
         <v>1242</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AI7" t="s">
         <v>1252</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AK7" t="s">
         <v>1267</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AO7" t="s">
         <v>1279</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AQ7" t="s">
         <v>1291</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AS7" t="s">
         <v>1300</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AU7" t="s">
         <v>1309</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AW7" t="s">
         <v>1315</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="AY7" t="s">
         <v>1321</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BA7" t="s">
         <v>1331</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BG7" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:60">
+      <c r="A8" t="s">
         <v>1115</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>1130</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>1140</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>1147</v>
       </c>
-      <c r="P8" t="s">
+      <c r="O8" t="s">
         <v>1163</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q8" t="s">
         <v>1168</v>
       </c>
-      <c r="T8" t="s">
+      <c r="S8" t="s">
         <v>1175</v>
       </c>
-      <c r="V8" t="s">
+      <c r="U8" t="s">
         <v>1185</v>
       </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s">
         <v>1194</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Y8" t="s">
         <v>1201</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AA8" t="s">
         <v>1212</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AC8" t="s">
         <v>653</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AE8" t="s">
         <v>1230</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AG8" t="s">
         <v>1243</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AI8" t="s">
         <v>1253</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AK8" t="s">
         <v>1268</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AO8" t="s">
         <v>1280</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AQ8" t="s">
         <v>1292</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AS8" t="s">
         <v>1301</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BA8" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:60">
+      <c r="A9" t="s">
         <v>1116</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>1131</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>1148</v>
       </c>
-      <c r="P9" t="s">
+      <c r="O9" t="s">
         <v>372</v>
       </c>
-      <c r="T9" t="s">
+      <c r="S9" t="s">
         <v>1176</v>
       </c>
-      <c r="V9" t="s">
+      <c r="U9" t="s">
         <v>1186</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>1202</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AA9" t="s">
         <v>1213</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AE9" t="s">
         <v>1231</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AG9" t="s">
         <v>1244</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AI9" t="s">
         <v>1254</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AK9" t="s">
         <v>1269</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AO9" t="s">
         <v>1281</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AQ9" t="s">
         <v>1293</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AS9" t="s">
         <v>1302</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="AY9" t="s">
         <v>1322</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BA9" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:60">
+      <c r="A10" t="s">
         <v>1117</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>1132</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>1149</v>
       </c>
-      <c r="T10" t="s">
+      <c r="S10" t="s">
         <v>361</v>
       </c>
-      <c r="V10" t="s">
+      <c r="U10" t="s">
         <v>1110</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>1203</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AA10" t="s">
         <v>1214</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AE10" t="s">
         <v>1232</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AG10" t="s">
         <v>1245</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AI10" t="s">
         <v>1255</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AK10" t="s">
         <v>1270</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AO10" t="s">
         <v>1282</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AQ10" t="s">
         <v>1294</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AS10" t="s">
         <v>1303</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="AY10" t="s">
         <v>1323</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BA10" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="11" spans="1:60">
+      <c r="E11" t="s">
         <v>1133</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" t="s">
         <v>1150</v>
       </c>
-      <c r="T11" t="s">
+      <c r="S11" t="s">
         <v>1177</v>
       </c>
-      <c r="V11" t="s">
+      <c r="U11" t="s">
         <v>1187</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>1204</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AA11" t="s">
         <v>1215</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AE11" t="s">
         <v>1233</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AG11" t="s">
         <v>1246</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AI11" t="s">
         <v>1256</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AO11" t="s">
         <v>1283</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="AY11" t="s">
         <v>1324</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BA11" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
+    <row r="12" spans="1:60">
+      <c r="I12" t="s">
         <v>388</v>
       </c>
-      <c r="T12" t="s">
+      <c r="S12" t="s">
         <v>1178</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>1205</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AA12" t="s">
         <v>1216</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AE12" t="s">
         <v>1234</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AI12" t="s">
         <v>1257</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AO12" t="s">
         <v>1284</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="AY12" t="s">
         <v>1325</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BA12" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="AB13" t="s">
+    <row r="13" spans="1:60">
+      <c r="AA13" t="s">
         <v>1217</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AE13" t="s">
         <v>1235</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AI13" t="s">
         <v>1258</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AO13" t="s">
         <v>1285</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BA13" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="AF14" t="s">
+    <row r="14" spans="1:60">
+      <c r="AE14" t="s">
         <v>1236</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AI14" t="s">
         <v>1259</v>
       </c>
-      <c r="BB14" t="s">
+      <c r="BA14" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="AJ15" t="s">
+    <row r="15" spans="1:60">
+      <c r="AI15" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="AJ16" t="s">
+    <row r="16" spans="1:60">
+      <c r="AI16" t="s">
         <v>1261</v>
       </c>
     </row>
@@ -11564,872 +11344,839 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BU13"/>
+  <dimension ref="A1:BT13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="74" width="60.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:72">
+      <c r="A1" s="1" t="s">
+        <v>1353</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="BU1" s="1" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:72">
+      <c r="A2" t="s">
         <v>1425</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>1426</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>1428</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>1430</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>1433</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>1438</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
         <v>1442</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>1448</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>1450</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>1455</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U2" t="s">
         <v>1457</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s">
         <v>1459</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Y2" t="s">
         <v>1465</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AA2" t="s">
         <v>1474</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AC2" t="s">
         <v>1486</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AE2" t="s">
         <v>1494</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AG2" t="s">
         <v>1499</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AI2" t="s">
         <v>1507</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AK2" t="s">
         <v>1510</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AM2" t="s">
         <v>1517</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AO2" t="s">
         <v>1519</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AQ2" t="s">
         <v>1524</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AS2" t="s">
         <v>1528</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AU2" t="s">
         <v>1534</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AW2" t="s">
         <v>1542</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AY2" t="s">
         <v>1545</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BA2" t="s">
         <v>1547</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BC2" t="s">
         <v>1553</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BE2" t="s">
         <v>1562</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BG2" t="s">
         <v>1570</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BI2" t="s">
         <v>1578</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BK2" t="s">
         <v>1586</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BM2" t="s">
         <v>1595</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BO2" t="s">
         <v>1605</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BQ2" t="s">
         <v>1608</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BS2" t="s">
         <v>1613</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:72">
+      <c r="C3" t="s">
         <v>1427</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>1429</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>1431</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>1434</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>1439</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>1443</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>1449</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>1451</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" t="s">
         <v>1456</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U3" t="s">
         <v>1458</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W3" t="s">
         <v>1460</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Y3" t="s">
         <v>1466</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" t="s">
         <v>1475</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AC3" t="s">
         <v>1487</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AE3" t="s">
         <v>1495</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AG3" t="s">
         <v>1500</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AI3" t="s">
         <v>1508</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AK3" t="s">
         <v>1511</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AM3" t="s">
         <v>1518</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AO3" t="s">
         <v>1520</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AQ3" t="s">
         <v>1525</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AS3" t="s">
         <v>1529</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AU3" t="s">
         <v>1535</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AW3" t="s">
         <v>1543</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AY3" t="s">
         <v>1546</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BA3" t="s">
         <v>1548</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BC3" t="s">
         <v>1554</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BE3" t="s">
         <v>1563</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BG3" t="s">
         <v>1571</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BI3" t="s">
         <v>1579</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BK3" t="s">
         <v>1587</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BM3" t="s">
         <v>1596</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BO3" t="s">
         <v>1606</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BQ3" t="s">
         <v>1609</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BS3" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="4" spans="1:73">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="4" spans="1:72">
+      <c r="G4" t="s">
         <v>1432</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>1435</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>1440</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
         <v>1444</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>1452</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s">
         <v>1461</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" t="s">
         <v>1467</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" t="s">
         <v>1476</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="s">
         <v>1488</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" t="s">
         <v>1496</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" t="s">
         <v>1501</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" t="s">
         <v>1509</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AK4" t="s">
         <v>1512</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AO4" t="s">
         <v>1521</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AQ4" t="s">
         <v>1526</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AS4" t="s">
         <v>1530</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AU4" t="s">
         <v>1536</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AW4" t="s">
         <v>1544</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BA4" t="s">
         <v>1549</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BC4" t="s">
         <v>1555</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BE4" t="s">
         <v>1564</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BG4" t="s">
         <v>1572</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BI4" t="s">
         <v>1580</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BK4" t="s">
         <v>1588</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BM4" t="s">
         <v>1597</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BO4" t="s">
         <v>1607</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BQ4" t="s">
         <v>1610</v>
       </c>
     </row>
-    <row r="5" spans="1:73">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
+    <row r="5" spans="1:72">
+      <c r="I5" t="s">
         <v>1436</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
         <v>1441</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" t="s">
         <v>1445</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>1453</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>1462</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Y5" t="s">
         <v>1468</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AA5" t="s">
         <v>1477</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AC5" t="s">
         <v>1489</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AE5" t="s">
         <v>1497</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AG5" t="s">
         <v>1502</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AK5" t="s">
         <v>1513</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AO5" t="s">
         <v>1522</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AQ5" t="s">
         <v>653</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AS5" t="s">
         <v>1531</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AU5" t="s">
         <v>1537</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BA5" t="s">
         <v>1550</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BC5" t="s">
         <v>1556</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BE5" t="s">
         <v>1565</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BG5" t="s">
         <v>1573</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BI5" t="s">
         <v>1581</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BK5" t="s">
         <v>1589</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BM5" t="s">
         <v>1598</v>
       </c>
-      <c r="BR5" t="s">
+      <c r="BQ5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:73">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
+    <row r="6" spans="1:72">
+      <c r="I6" t="s">
         <v>1437</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" t="s">
         <v>1446</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" t="s">
         <v>1454</v>
       </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s">
         <v>1463</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Y6" t="s">
         <v>1469</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AA6" t="s">
         <v>1478</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AC6" t="s">
         <v>1490</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AE6" t="s">
         <v>1498</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AG6" t="s">
         <v>1503</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AK6" t="s">
         <v>1514</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AO6" t="s">
         <v>1523</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AQ6" t="s">
         <v>1527</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AS6" t="s">
         <v>1532</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AU6" t="s">
         <v>1538</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BA6" t="s">
         <v>1551</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BC6" t="s">
         <v>1557</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BE6" t="s">
         <v>1566</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BG6" t="s">
         <v>1574</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BI6" t="s">
         <v>1582</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BK6" t="s">
         <v>1590</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BM6" t="s">
         <v>1599</v>
       </c>
-      <c r="BR6" t="s">
+      <c r="BQ6" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="7" spans="1:73">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
+    <row r="7" spans="1:72">
+      <c r="M7" t="s">
         <v>1447</v>
       </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>1464</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Y7" t="s">
         <v>1470</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AA7" t="s">
         <v>1479</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AC7" t="s">
         <v>1491</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AG7" t="s">
         <v>1504</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AK7" t="s">
         <v>1515</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AS7" t="s">
         <v>1533</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AU7" t="s">
         <v>1539</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BA7" t="s">
         <v>1552</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BC7" t="s">
         <v>1558</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BE7" t="s">
         <v>1567</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BG7" t="s">
         <v>1575</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BI7" t="s">
         <v>1583</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BK7" t="s">
         <v>1591</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="BM7" t="s">
         <v>1600</v>
       </c>
-      <c r="BR7" t="s">
+      <c r="BQ7" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="8" spans="1:73">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z8" t="s">
+    <row r="8" spans="1:72">
+      <c r="Y8" t="s">
         <v>1471</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AA8" t="s">
         <v>1480</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AC8" t="s">
         <v>1492</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AG8" t="s">
         <v>1505</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AK8" t="s">
         <v>1516</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AU8" t="s">
         <v>1540</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BC8" t="s">
         <v>1559</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BE8" t="s">
         <v>1568</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BG8" t="s">
         <v>1576</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BI8" t="s">
         <v>1584</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BK8" t="s">
         <v>1592</v>
       </c>
-      <c r="BN8" t="s">
+      <c r="BM8" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="9" spans="1:73">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z9" t="s">
+    <row r="9" spans="1:72">
+      <c r="Y9" t="s">
         <v>30</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AA9" t="s">
         <v>1481</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AC9" t="s">
         <v>1493</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AG9" t="s">
         <v>1506</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AU9" t="s">
         <v>1541</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BC9" t="s">
         <v>1560</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BE9" t="s">
         <v>388</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BG9" t="s">
         <v>1577</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BI9" t="s">
         <v>1585</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BK9" t="s">
         <v>1593</v>
       </c>
-      <c r="BN9" t="s">
+      <c r="BM9" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="10" spans="1:73">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="Z10" t="s">
+    <row r="10" spans="1:72">
+      <c r="Y10" t="s">
         <v>224</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AA10" t="s">
         <v>1482</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BC10" t="s">
         <v>1561</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BE10" t="s">
         <v>1569</v>
       </c>
-      <c r="BL10" t="s">
+      <c r="BK10" t="s">
         <v>1594</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="BM10" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="11" spans="1:73">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="s">
+    <row r="11" spans="1:72">
+      <c r="Y11" t="s">
         <v>1472</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AA11" t="s">
         <v>1483</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="BM11" t="s">
         <v>1604</v>
       </c>
     </row>
-    <row r="12" spans="1:73">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="Z12" t="s">
+    <row r="12" spans="1:72">
+      <c r="Y12" t="s">
         <v>1473</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AA12" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="13" spans="1:73">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="AB13" t="s">
+    <row r="13" spans="1:72">
+      <c r="AA13" t="s">
         <v>1485</v>
       </c>
     </row>
@@ -12440,1372 +12187,1336 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CQ14"/>
+  <dimension ref="A1:CP14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="96" width="60.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:94">
+      <c r="A1" s="1" t="s">
+        <v>1615</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="2" spans="1:95">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:94">
+      <c r="A2" t="s">
         <v>1709</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>1710</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>1720</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>1728</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>1732</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>1742</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
         <v>1749</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>1752</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>1755</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>1760</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U2" t="s">
         <v>1766</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s">
         <v>1774</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Y2" t="s">
         <v>1781</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AA2" t="s">
         <v>1791</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AC2" t="s">
         <v>1800</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AE2" t="s">
         <v>1811</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AG2" t="s">
         <v>1822</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AI2" t="s">
         <v>1835</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AK2" t="s">
         <v>1840</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AM2" t="s">
         <v>1846</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AO2" t="s">
         <v>1858</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AQ2" t="s">
         <v>1868</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AS2" t="s">
         <v>1874</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AU2" t="s">
         <v>1883</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AW2" t="s">
         <v>1889</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="AY2" t="s">
         <v>1899</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BA2" t="s">
         <v>1904</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BC2" t="s">
         <v>1911</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BE2" t="s">
         <v>1916</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BG2" t="s">
         <v>1923</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BI2" t="s">
         <v>1930</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BK2" t="s">
         <v>1939</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BM2" t="s">
         <v>653</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BO2" t="s">
         <v>388</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BQ2" t="s">
         <v>1953</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BS2" t="s">
         <v>1956</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BU2" t="s">
         <v>1958</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BW2" t="s">
         <v>1533</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="BY2" t="s">
         <v>1974</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CA2" t="s">
         <v>1984</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CC2" t="s">
         <v>1988</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CE2" t="s">
         <v>1990</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CG2" t="s">
         <v>1993</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CI2" t="s">
         <v>2005</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CK2" t="s">
         <v>2014</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CM2" t="s">
         <v>2024</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CO2" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="3" spans="1:95">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:94">
+      <c r="C3" t="s">
         <v>1711</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>1721</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>1729</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>1733</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>1743</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>1750</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>1753</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>1756</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" t="s">
         <v>1761</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U3" t="s">
         <v>1767</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W3" t="s">
         <v>1775</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Y3" t="s">
         <v>1782</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AA3" t="s">
         <v>1792</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AC3" t="s">
         <v>1801</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AE3" t="s">
         <v>1812</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AG3" t="s">
         <v>1823</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AI3" t="s">
         <v>1836</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AK3" t="s">
         <v>1841</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AM3" t="s">
         <v>1847</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AO3" t="s">
         <v>1859</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AQ3" t="s">
         <v>1869</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AS3" t="s">
         <v>1875</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AU3" t="s">
         <v>1884</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AW3" t="s">
         <v>1890</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="AY3" t="s">
         <v>1900</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BA3" t="s">
         <v>1905</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BC3" t="s">
         <v>1912</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BE3" t="s">
         <v>1917</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BG3" t="s">
         <v>1924</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BI3" t="s">
         <v>1931</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BK3" t="s">
         <v>1940</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BM3" t="s">
         <v>1947</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BO3" t="s">
         <v>1949</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BQ3" t="s">
         <v>1954</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BS3" t="s">
         <v>1957</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BU3" t="s">
         <v>1959</v>
       </c>
-      <c r="BX3" t="s">
+      <c r="BW3" t="s">
         <v>1967</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="BY3" t="s">
         <v>1975</v>
       </c>
-      <c r="CB3" t="s">
+      <c r="CA3" t="s">
         <v>1985</v>
       </c>
-      <c r="CD3" t="s">
+      <c r="CC3" t="s">
         <v>1989</v>
       </c>
-      <c r="CF3" t="s">
+      <c r="CE3" t="s">
         <v>1991</v>
       </c>
-      <c r="CH3" t="s">
+      <c r="CG3" t="s">
         <v>1994</v>
       </c>
-      <c r="CJ3" t="s">
+      <c r="CI3" t="s">
         <v>2006</v>
       </c>
-      <c r="CL3" t="s">
+      <c r="CK3" t="s">
         <v>2015</v>
       </c>
-      <c r="CN3" t="s">
+      <c r="CM3" t="s">
         <v>2025</v>
       </c>
-      <c r="CP3" t="s">
+      <c r="CO3" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="4" spans="1:95">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" spans="1:94">
+      <c r="C4" t="s">
         <v>1712</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>1722</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>1730</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>1734</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>1744</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
         <v>1751</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" t="s">
         <v>1754</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>1757</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" t="s">
         <v>1762</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" t="s">
         <v>1569</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s">
         <v>1776</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" t="s">
         <v>1783</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" t="s">
         <v>1793</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="s">
         <v>1802</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" t="s">
         <v>1813</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" t="s">
         <v>1824</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" t="s">
         <v>1837</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AM4" t="s">
         <v>1848</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AO4" t="s">
         <v>1860</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AQ4" t="s">
         <v>1870</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AS4" t="s">
         <v>1876</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AU4" t="s">
         <v>1885</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AW4" t="s">
         <v>1891</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AY4" t="s">
         <v>1901</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BA4" t="s">
         <v>1906</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BC4" t="s">
         <v>1913</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BE4" t="s">
         <v>1918</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BG4" t="s">
         <v>1925</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BI4" t="s">
         <v>1932</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BK4" t="s">
         <v>1941</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BM4" t="s">
         <v>1948</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BO4" t="s">
         <v>1950</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BQ4" t="s">
         <v>1955</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BU4" t="s">
         <v>1960</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="BW4" t="s">
         <v>1968</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="BY4" t="s">
         <v>1976</v>
       </c>
-      <c r="CB4" t="s">
+      <c r="CA4" t="s">
         <v>1986</v>
       </c>
-      <c r="CF4" t="s">
+      <c r="CE4" t="s">
         <v>1992</v>
       </c>
-      <c r="CH4" t="s">
+      <c r="CG4" t="s">
         <v>1995</v>
       </c>
-      <c r="CJ4" t="s">
+      <c r="CI4" t="s">
         <v>2007</v>
       </c>
-      <c r="CL4" t="s">
+      <c r="CK4" t="s">
         <v>2016</v>
       </c>
-      <c r="CN4" t="s">
+      <c r="CM4" t="s">
         <v>2026</v>
       </c>
-      <c r="CP4" t="s">
+      <c r="CO4" t="s">
         <v>2038</v>
       </c>
     </row>
-    <row r="5" spans="1:95">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" spans="1:94">
+      <c r="C5" t="s">
         <v>1713</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>1723</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>1731</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>1735</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
         <v>1745</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>1758</v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" t="s">
         <v>1763</v>
       </c>
-      <c r="V5" t="s">
+      <c r="U5" t="s">
         <v>1768</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>1777</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Y5" t="s">
         <v>1784</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AA5" t="s">
         <v>1794</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AC5" t="s">
         <v>1803</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AE5" t="s">
         <v>1814</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AG5" t="s">
         <v>1825</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AI5" t="s">
         <v>1838</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AM5" t="s">
         <v>1849</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AO5" t="s">
         <v>1861</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AQ5" t="s">
         <v>1871</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AS5" t="s">
         <v>1877</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AU5" t="s">
         <v>1886</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AW5" t="s">
         <v>1892</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="AY5" t="s">
         <v>1902</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BA5" t="s">
         <v>1907</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BC5" t="s">
         <v>1914</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BE5" t="s">
         <v>1919</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BG5" t="s">
         <v>1926</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BI5" t="s">
         <v>1933</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BK5" t="s">
         <v>1942</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BM5" t="s">
         <v>1948</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BO5" t="s">
         <v>1951</v>
       </c>
-      <c r="BV5" t="s">
+      <c r="BU5" t="s">
         <v>1961</v>
       </c>
-      <c r="BX5" t="s">
+      <c r="BW5" t="s">
         <v>1969</v>
       </c>
-      <c r="BZ5" t="s">
+      <c r="BY5" t="s">
         <v>1977</v>
       </c>
-      <c r="CB5" t="s">
+      <c r="CA5" t="s">
         <v>1987</v>
       </c>
-      <c r="CH5" t="s">
+      <c r="CG5" t="s">
         <v>1996</v>
       </c>
-      <c r="CJ5" t="s">
+      <c r="CI5" t="s">
         <v>2008</v>
       </c>
-      <c r="CL5" t="s">
+      <c r="CK5" t="s">
         <v>2017</v>
       </c>
-      <c r="CN5" t="s">
+      <c r="CM5" t="s">
         <v>2027</v>
       </c>
     </row>
-    <row r="6" spans="1:95">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="6" spans="1:94">
+      <c r="C6" t="s">
         <v>1714</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>1724</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>1736</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
         <v>1746</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" t="s">
         <v>1759</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>1764</v>
       </c>
-      <c r="V6" t="s">
+      <c r="U6" t="s">
         <v>1769</v>
       </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s">
         <v>1778</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Y6" t="s">
         <v>1785</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AA6" t="s">
         <v>1795</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AC6" t="s">
         <v>1804</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AE6" t="s">
         <v>1815</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AG6" t="s">
         <v>1826</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AI6" t="s">
         <v>1839</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AM6" t="s">
         <v>1850</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AO6" t="s">
         <v>1862</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AQ6" t="s">
         <v>1872</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AS6" t="s">
         <v>1878</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AU6" t="s">
         <v>1887</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AW6" t="s">
         <v>1893</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="AY6" t="s">
         <v>1903</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BA6" t="s">
         <v>1908</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BC6" t="s">
         <v>1915</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BE6" t="s">
         <v>1920</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BG6" t="s">
         <v>1927</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BI6" t="s">
         <v>1934</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BK6" t="s">
         <v>1943</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BO6" t="s">
         <v>1952</v>
       </c>
-      <c r="BV6" t="s">
+      <c r="BU6" t="s">
         <v>1962</v>
       </c>
-      <c r="BX6" t="s">
+      <c r="BW6" t="s">
         <v>1970</v>
       </c>
-      <c r="BZ6" t="s">
+      <c r="BY6" t="s">
         <v>1978</v>
       </c>
-      <c r="CH6" t="s">
+      <c r="CG6" t="s">
         <v>1997</v>
       </c>
-      <c r="CJ6" t="s">
+      <c r="CI6" t="s">
         <v>2009</v>
       </c>
-      <c r="CL6" t="s">
+      <c r="CK6" t="s">
         <v>2018</v>
       </c>
-      <c r="CN6" t="s">
+      <c r="CM6" t="s">
         <v>2028</v>
       </c>
     </row>
-    <row r="7" spans="1:95">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="7" spans="1:94">
+      <c r="C7" t="s">
         <v>1715</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>1725</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>1737</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>1747</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S7" t="s">
         <v>1765</v>
       </c>
-      <c r="V7" t="s">
+      <c r="U7" t="s">
         <v>1770</v>
       </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>1779</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Y7" t="s">
         <v>1786</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AA7" t="s">
         <v>1796</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AC7" t="s">
         <v>1805</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AE7" t="s">
         <v>1816</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AG7" t="s">
         <v>1827</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AI7" t="s">
         <v>1840</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AM7" t="s">
         <v>1851</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AO7" t="s">
         <v>1863</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AQ7" t="s">
         <v>1873</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AS7" t="s">
         <v>1879</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AU7" t="s">
         <v>1888</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AW7" t="s">
         <v>1894</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BA7" t="s">
         <v>1909</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BE7" t="s">
         <v>1921</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BG7" t="s">
         <v>1928</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BI7" t="s">
         <v>1935</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BK7" t="s">
         <v>1944</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BO7" t="s">
         <v>653</v>
       </c>
-      <c r="BV7" t="s">
+      <c r="BU7" t="s">
         <v>1963</v>
       </c>
-      <c r="BX7" t="s">
+      <c r="BW7" t="s">
         <v>1971</v>
       </c>
-      <c r="BZ7" t="s">
+      <c r="BY7" t="s">
         <v>1979</v>
       </c>
-      <c r="CH7" t="s">
+      <c r="CG7" t="s">
         <v>1998</v>
       </c>
-      <c r="CJ7" t="s">
+      <c r="CI7" t="s">
         <v>2010</v>
       </c>
-      <c r="CL7" t="s">
+      <c r="CK7" t="s">
         <v>2019</v>
       </c>
-      <c r="CN7" t="s">
+      <c r="CM7" t="s">
         <v>2029</v>
       </c>
     </row>
-    <row r="8" spans="1:95">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="8" spans="1:94">
+      <c r="C8" t="s">
         <v>1716</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>1726</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>1738</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
         <v>1748</v>
       </c>
-      <c r="V8" t="s">
+      <c r="U8" t="s">
         <v>1771</v>
       </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s">
         <v>1780</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Y8" t="s">
         <v>1787</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AA8" t="s">
         <v>1797</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AC8" t="s">
         <v>1806</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AE8" t="s">
         <v>1817</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AG8" t="s">
         <v>1828</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AI8" t="s">
         <v>1841</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AM8" t="s">
         <v>1852</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AO8" t="s">
         <v>1864</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AS8" t="s">
         <v>1880</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AW8" t="s">
         <v>1895</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BA8" t="s">
         <v>1910</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BE8" t="s">
         <v>1922</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BG8" t="s">
         <v>1929</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BI8" t="s">
         <v>1936</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BK8" t="s">
         <v>1945</v>
       </c>
-      <c r="BV8" t="s">
+      <c r="BU8" t="s">
         <v>1964</v>
       </c>
-      <c r="BX8" t="s">
+      <c r="BW8" t="s">
         <v>1972</v>
       </c>
-      <c r="BZ8" t="s">
+      <c r="BY8" t="s">
         <v>1980</v>
       </c>
-      <c r="CH8" t="s">
+      <c r="CG8" t="s">
         <v>1999</v>
       </c>
-      <c r="CJ8" t="s">
+      <c r="CI8" t="s">
         <v>2011</v>
       </c>
-      <c r="CL8" t="s">
+      <c r="CK8" t="s">
         <v>2020</v>
       </c>
-      <c r="CN8" t="s">
+      <c r="CM8" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="9" spans="1:95">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="9" spans="1:94">
+      <c r="C9" t="s">
         <v>1717</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>1727</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>1739</v>
       </c>
-      <c r="V9" t="s">
+      <c r="U9" t="s">
         <v>1772</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>1788</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AA9" t="s">
         <v>1798</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AC9" t="s">
         <v>1807</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AE9" t="s">
         <v>1818</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AG9" t="s">
         <v>1829</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AI9" t="s">
         <v>1842</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AM9" t="s">
         <v>1853</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AO9" t="s">
         <v>1865</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AS9" t="s">
         <v>1881</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AW9" t="s">
         <v>1896</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BI9" t="s">
         <v>1937</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BK9" t="s">
         <v>1946</v>
       </c>
-      <c r="BV9" t="s">
+      <c r="BU9" t="s">
         <v>1965</v>
       </c>
-      <c r="BX9" t="s">
+      <c r="BW9" t="s">
         <v>1973</v>
       </c>
-      <c r="BZ9" t="s">
+      <c r="BY9" t="s">
         <v>1981</v>
       </c>
-      <c r="CH9" t="s">
+      <c r="CG9" t="s">
         <v>2000</v>
       </c>
-      <c r="CJ9" t="s">
+      <c r="CI9" t="s">
         <v>2012</v>
       </c>
-      <c r="CL9" t="s">
+      <c r="CK9" t="s">
         <v>2021</v>
       </c>
-      <c r="CN9" t="s">
+      <c r="CM9" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="10" spans="1:95">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="10" spans="1:94">
+      <c r="C10" t="s">
         <v>1718</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>1740</v>
       </c>
-      <c r="V10" t="s">
+      <c r="U10" t="s">
         <v>1773</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>1789</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AA10" t="s">
         <v>1799</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AC10" t="s">
         <v>1808</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AE10" t="s">
         <v>1819</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AG10" t="s">
         <v>1830</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AI10" t="s">
         <v>1843</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AM10" t="s">
         <v>1854</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AO10" t="s">
         <v>1866</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AS10" t="s">
         <v>1882</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AW10" t="s">
         <v>1897</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BI10" t="s">
         <v>1938</v>
       </c>
-      <c r="BV10" t="s">
+      <c r="BU10" t="s">
         <v>1966</v>
       </c>
-      <c r="BZ10" t="s">
+      <c r="BY10" t="s">
         <v>1982</v>
       </c>
-      <c r="CH10" t="s">
+      <c r="CG10" t="s">
         <v>2001</v>
       </c>
-      <c r="CJ10" t="s">
+      <c r="CI10" t="s">
         <v>2013</v>
       </c>
-      <c r="CL10" t="s">
+      <c r="CK10" t="s">
         <v>2022</v>
       </c>
-      <c r="CN10" t="s">
+      <c r="CM10" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="11" spans="1:95">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="11" spans="1:94">
+      <c r="C11" t="s">
         <v>1719</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" t="s">
         <v>1741</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>1790</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AC11" t="s">
         <v>1809</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AE11" t="s">
         <v>1820</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AG11" t="s">
         <v>1831</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AI11" t="s">
         <v>1844</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AM11" t="s">
         <v>1855</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AO11" t="s">
         <v>1867</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AW11" t="s">
         <v>1898</v>
       </c>
-      <c r="BZ11" t="s">
+      <c r="BY11" t="s">
         <v>1983</v>
       </c>
-      <c r="CH11" t="s">
+      <c r="CG11" t="s">
         <v>2002</v>
       </c>
-      <c r="CL11" t="s">
+      <c r="CK11" t="s">
         <v>2023</v>
       </c>
-      <c r="CN11" t="s">
+      <c r="CM11" t="s">
         <v>2033</v>
       </c>
     </row>
-    <row r="12" spans="1:95">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="s">
+    <row r="12" spans="1:94">
+      <c r="AC12" t="s">
         <v>1810</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AE12" t="s">
         <v>1821</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AG12" t="s">
         <v>1832</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AI12" t="s">
         <v>1845</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AM12" t="s">
         <v>1856</v>
       </c>
-      <c r="CH12" t="s">
+      <c r="CG12" t="s">
         <v>2003</v>
       </c>
-      <c r="CN12" t="s">
+      <c r="CM12" t="s">
         <v>2034</v>
       </c>
     </row>
-    <row r="13" spans="1:95">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="s">
+    <row r="13" spans="1:94">
+      <c r="AG13" t="s">
         <v>1833</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AM13" t="s">
         <v>1857</v>
       </c>
-      <c r="CH13" t="s">
+      <c r="CG13" t="s">
         <v>2004</v>
       </c>
-      <c r="CN13" t="s">
+      <c r="CM13" t="s">
         <v>2035</v>
       </c>
     </row>
-    <row r="14" spans="1:95">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="s">
+    <row r="14" spans="1:94">
+      <c r="AG14" t="s">
         <v>1834</v>
       </c>
     </row>
@@ -13816,451 +13527,415 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="26" width="60.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
+      <c r="A1" s="1" t="s">
+        <v>2039</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>2061</v>
-      </c>
-      <c r="Y1" s="1" t="s">
         <v>2062</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
         <v>2063</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>2069</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>2071</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>2082</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" t="s">
         <v>2091</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>2100</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" t="s">
         <v>2113</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" t="s">
         <v>2122</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s">
         <v>2127</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" t="s">
         <v>2138</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U2" t="s">
         <v>2144</v>
       </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s">
         <v>2154</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
         <v>2064</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>2070</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>2072</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>2083</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" t="s">
         <v>2092</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>2101</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>2114</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>2123</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>2128</v>
       </c>
-      <c r="T3" t="s">
+      <c r="S3" t="s">
         <v>2139</v>
       </c>
-      <c r="V3" t="s">
+      <c r="U3" t="s">
         <v>2145</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W3" t="s">
         <v>2155</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
         <v>2065</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>2073</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>2084</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" t="s">
         <v>2093</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
         <v>2102</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
         <v>2115</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" t="s">
         <v>2124</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" t="s">
         <v>2129</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" t="s">
         <v>2140</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" t="s">
         <v>2146</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s">
         <v>2156</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
         <v>2066</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>2074</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>2085</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" t="s">
         <v>2094</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
         <v>2103</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" t="s">
         <v>2116</v>
       </c>
-      <c r="P5" t="s">
+      <c r="O5" t="s">
         <v>2125</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>2130</v>
       </c>
-      <c r="T5" t="s">
+      <c r="S5" t="s">
         <v>2141</v>
       </c>
-      <c r="V5" t="s">
+      <c r="U5" t="s">
         <v>2147</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>2157</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
         <v>2067</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>2075</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>2086</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
         <v>2095</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" t="s">
         <v>2104</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6" t="s">
         <v>2117</v>
       </c>
-      <c r="P6" t="s">
+      <c r="O6" t="s">
         <v>2126</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" t="s">
         <v>2131</v>
       </c>
-      <c r="T6" t="s">
+      <c r="S6" t="s">
         <v>2142</v>
       </c>
-      <c r="V6" t="s">
+      <c r="U6" t="s">
         <v>2148</v>
       </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s">
         <v>2158</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
         <v>844</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>2076</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
         <v>2087</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>2096</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>2105</v>
       </c>
-      <c r="N7" t="s">
+      <c r="M7" t="s">
         <v>2118</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Q7" t="s">
         <v>2132</v>
       </c>
-      <c r="T7" t="s">
+      <c r="S7" t="s">
         <v>2143</v>
       </c>
-      <c r="V7" t="s">
+      <c r="U7" t="s">
         <v>2149</v>
       </c>
-      <c r="X7" t="s">
+      <c r="W7" t="s">
         <v>2159</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:24">
+      <c r="A8" t="s">
         <v>2068</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>2077</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>2088</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>2097</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
         <v>2106</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" t="s">
         <v>2119</v>
       </c>
-      <c r="R8" t="s">
+      <c r="Q8" t="s">
         <v>2133</v>
       </c>
-      <c r="V8" t="s">
+      <c r="U8" t="s">
         <v>2150</v>
       </c>
-      <c r="X8" t="s">
+      <c r="W8" t="s">
         <v>2160</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="9" spans="1:24">
+      <c r="E9" t="s">
         <v>2078</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>2089</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>2098</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" t="s">
         <v>2107</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9" t="s">
         <v>2120</v>
       </c>
-      <c r="R9" t="s">
+      <c r="Q9" t="s">
         <v>2134</v>
       </c>
-      <c r="V9" t="s">
+      <c r="U9" t="s">
         <v>2151</v>
       </c>
-      <c r="X9" t="s">
+      <c r="W9" t="s">
         <v>2161</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="10" spans="1:24">
+      <c r="E10" t="s">
         <v>2079</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>2090</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>2099</v>
       </c>
-      <c r="L10" t="s">
+      <c r="K10" t="s">
         <v>2108</v>
       </c>
-      <c r="N10" t="s">
+      <c r="M10" t="s">
         <v>2121</v>
       </c>
-      <c r="R10" t="s">
+      <c r="Q10" t="s">
         <v>2135</v>
       </c>
-      <c r="V10" t="s">
+      <c r="U10" t="s">
         <v>2152</v>
       </c>
-      <c r="X10" t="s">
+      <c r="W10" t="s">
         <v>2162</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="11" spans="1:24">
+      <c r="E11" t="s">
         <v>2080</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
         <v>2109</v>
       </c>
-      <c r="R11" t="s">
+      <c r="Q11" t="s">
         <v>2136</v>
       </c>
-      <c r="V11" t="s">
+      <c r="U11" t="s">
         <v>2153</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="12" spans="1:24">
+      <c r="E12" t="s">
         <v>2081</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" t="s">
         <v>2110</v>
       </c>
-      <c r="R12" t="s">
+      <c r="Q12" t="s">
         <v>2137</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="L13" t="s">
+    <row r="13" spans="1:24">
+      <c r="K13" t="s">
         <v>2111</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="L14" t="s">
+    <row r="14" spans="1:24">
+      <c r="K14" t="s">
         <v>2112</v>
       </c>
     </row>
